--- a/biology/Médecine/Étienne_Bouchard/Étienne_Bouchard.xlsx
+++ b/biology/Médecine/Étienne_Bouchard/Étienne_Bouchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Bouchard</t>
+          <t>Étienne_Bouchard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Bouchard (1622-1676) est un chirurgien né à Paris vers 1622.
 Arrivé au Canada le 22 septembre 1653, il participa à une initiative pour renforcer et développer Montréal. La Société Notre-Dame de Montréal, qui était responsable de la fondation de Ville-Marie, avait promis des soins de santé gratuits à l'ensemble des habitants du fort.
-Bouchard est venu en Nouvelle-France avec deux autres chirurgiens. Ses compagnons étaient Louis Chartier et Pierre Piron. Il rompit son contrat avec la Société Notre-Dame en 1655. Il entreprit une impressionnante pratique par la suite, le forçant à engager plusieurs aides-chirurgiens pour répondre à la demande. Il se maria au Canada le 6 octobre 1657, avec Marguerite Boissel, dont il eut sept enfants. Il était officier des chirurgiens associés avec Jean Martinet de Fonblanche[1] et fut médecin à l'Hôtel-Dieu de Montréal.
+Bouchard est venu en Nouvelle-France avec deux autres chirurgiens. Ses compagnons étaient Louis Chartier et Pierre Piron. Il rompit son contrat avec la Société Notre-Dame en 1655. Il entreprit une impressionnante pratique par la suite, le forçant à engager plusieurs aides-chirurgiens pour répondre à la demande. Il se maria au Canada le 6 octobre 1657, avec Marguerite Boissel, dont il eut sept enfants. Il était officier des chirurgiens associés avec Jean Martinet de Fonblanche et fut médecin à l'Hôtel-Dieu de Montréal.
 </t>
         </is>
       </c>
